--- a/每週買賣報表/每日買賣總表/每日買賣總表2023-03-16.xlsx
+++ b/每週買賣報表/每日買賣總表/每日買賣總表2023-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>買進部位</t>
   </si>
@@ -22,136 +22,205 @@
     <t>賣出部位</t>
   </si>
   <si>
-    <t>2204</t>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>6643</t>
+  </si>
+  <si>
+    <t>6449</t>
+  </si>
+  <si>
+    <t>6282</t>
+  </si>
+  <si>
+    <t>5903</t>
+  </si>
+  <si>
+    <t>5607</t>
+  </si>
+  <si>
+    <t>5478</t>
+  </si>
+  <si>
+    <t>5209</t>
+  </si>
+  <si>
+    <t>4967</t>
+  </si>
+  <si>
+    <t>6776</t>
+  </si>
+  <si>
+    <t>4417</t>
+  </si>
+  <si>
+    <t>3218</t>
+  </si>
+  <si>
+    <t>3078</t>
+  </si>
+  <si>
+    <t>3056</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>3015</t>
   </si>
   <si>
     <t>2546</t>
   </si>
   <si>
-    <t>3015</t>
-  </si>
-  <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>3038</t>
-  </si>
-  <si>
-    <t>3056</t>
-  </si>
-  <si>
-    <t>3078</t>
-  </si>
-  <si>
-    <t>3218</t>
-  </si>
-  <si>
-    <t>4417</t>
-  </si>
-  <si>
-    <t>5209</t>
-  </si>
-  <si>
-    <t>5607</t>
-  </si>
-  <si>
-    <t>5903</t>
+    <t>2457</t>
+  </si>
+  <si>
+    <t>3661</t>
   </si>
   <si>
     <t>8926</t>
   </si>
   <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>2433</t>
-  </si>
-  <si>
-    <t>6175</t>
+    <t>3704</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>6603</t>
+  </si>
+  <si>
+    <t>6451</t>
+  </si>
+  <si>
+    <t>6180</t>
+  </si>
+  <si>
+    <t>4160</t>
+  </si>
+  <si>
+    <t>4111</t>
+  </si>
+  <si>
+    <t>3705</t>
+  </si>
+  <si>
+    <t>3537</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>2392</t>
   </si>
   <si>
     <t>8464</t>
   </si>
   <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
     <t>1783</t>
   </si>
   <si>
-    <t>4160</t>
-  </si>
-  <si>
-    <t>6451</t>
-  </si>
-  <si>
-    <t>2753</t>
-  </si>
-  <si>
-    <t>2327</t>
-  </si>
-  <si>
-    <t>6180</t>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>4945</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>6435</t>
+  </si>
+  <si>
+    <t>6284</t>
+  </si>
+  <si>
+    <t>6187</t>
+  </si>
+  <si>
+    <t>5438</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
+    <t>4735</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>3317</t>
+  </si>
+  <si>
     <t>2428</t>
   </si>
   <si>
-    <t>1773</t>
-  </si>
-  <si>
-    <t>3317</t>
-  </si>
-  <si>
-    <t>6435</t>
-  </si>
-  <si>
-    <t>1515</t>
+    <t>2417</t>
+  </si>
+  <si>
+    <t>4163</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>3652</t>
+  </si>
+  <si>
+    <t>5288</t>
+  </si>
+  <si>
+    <t>8433</t>
+  </si>
+  <si>
+    <t>5907</t>
+  </si>
+  <si>
+    <t>3147</t>
+  </si>
+  <si>
+    <t>2425</t>
+  </si>
+  <si>
+    <t>1618</t>
   </si>
   <si>
     <t>8403</t>
   </si>
   <si>
-    <t>5907</t>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>8105</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
+    <t>6609</t>
   </si>
   <si>
     <t>6523</t>
   </si>
   <si>
-    <t>8433</t>
+    <t>1777</t>
   </si>
   <si>
     <t>1268</t>
-  </si>
-  <si>
-    <t>5288</t>
-  </si>
-  <si>
-    <t>4163</t>
-  </si>
-  <si>
-    <t>1463</t>
-  </si>
-  <si>
-    <t>3147</t>
-  </si>
-  <si>
-    <t>2425</t>
-  </si>
-  <si>
-    <t>2063</t>
-  </si>
-  <si>
-    <t>3652</t>
-  </si>
-  <si>
-    <t>6609</t>
-  </si>
-  <si>
-    <t>6666</t>
-  </si>
-  <si>
-    <t>1777</t>
   </si>
 </sst>
 </file>
@@ -509,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +609,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>-0.5</v>
@@ -557,7 +626,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>-0.5</v>
@@ -574,7 +643,7 @@
         <v>0.5</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>-0.5</v>
@@ -591,7 +660,7 @@
         <v>0.5</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>-0.5</v>
@@ -608,7 +677,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>-0.5</v>
@@ -625,7 +694,7 @@
         <v>0.5</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>-0.5</v>
@@ -642,7 +711,7 @@
         <v>0.5</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>-0.5</v>
@@ -659,10 +728,10 @@
         <v>0.5</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -676,10 +745,10 @@
         <v>0.5</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -693,10 +762,10 @@
         <v>0.5</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -710,10 +779,10 @@
         <v>0.5</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -727,10 +796,10 @@
         <v>0.5</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -744,10 +813,10 @@
         <v>0.5</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -758,13 +827,13 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -775,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -792,68 +861,98 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -861,10 +960,10 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E23">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,10 +971,10 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,10 +982,10 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -894,10 +993,10 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -905,10 +1004,10 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E27">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -916,10 +1015,10 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E28">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -927,9 +1026,207 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="E29">
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47">
         <v>-2.5</v>
       </c>
     </row>
